--- a/results/results_summary.xlsx
+++ b/results/results_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\phoenix\base\active\Class-Granular-Classifications\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D220EA-2EB3-45D9-AD75-E99014CEE273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB049F3-E767-41C3-B805-37363078FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7512DF6-2F95-4E3A-81B2-878CFD547D0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>AlexNet</t>
   </si>
@@ -50,11 +50,15 @@
     <t>Training Loss</t>
   </si>
   <si>
-    <t>Validation Accuracy</t>
+    <t xml:space="preserve">
+Note: The Super-HBN Accuracy is based on coarse classes</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Note: The Super-HBN Accuracy is based on coarse classes</t>
+    <t>TD-HBN</t>
+  </si>
+  <si>
+    <t>Validation
+Accuracy</t>
   </si>
 </sst>
 </file>
@@ -684,20 +688,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="60.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,18 +711,21 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="2:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+    <row r="3" spans="2:6" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_summary.xlsx
+++ b/results/results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\phoenix\base\active\Class-Granular-Classifications\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB049F3-E767-41C3-B805-37363078FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF491DF-F046-41B5-A001-4AB3FD2DD1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7512DF6-2F95-4E3A-81B2-878CFD547D0A}"/>
+    <workbookView xWindow="25507" yWindow="513" windowWidth="25786" windowHeight="13867" xr2:uid="{E7512DF6-2F95-4E3A-81B2-878CFD547D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>AlexNet</t>
   </si>
@@ -50,15 +50,15 @@
     <t>Training Loss</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Note: The Super-HBN Accuracy is based on coarse classes</t>
-  </si>
-  <si>
     <t>TD-HBN</t>
   </si>
   <si>
     <t>Validation
 Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Note: The Super-HBN Accuracy includes some coarse class classifications</t>
   </si>
 </sst>
 </file>
@@ -124,22 +124,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>93889</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38460</xdr:rowOff>
+      <xdr:rowOff>71400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4191001</xdr:colOff>
+      <xdr:colOff>4199667</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3228614</xdr:rowOff>
+      <xdr:rowOff>3151867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A4E21F-CA9D-288A-93A8-4165A0F5DEB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A0C040-0C4B-E81A-460A-74C89E389CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -147,21 +147,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="5254" t="7405" r="8381" b="2481"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="609960"/>
-          <a:ext cx="4067176" cy="3190154"/>
+          <a:off x="1327603" y="645924"/>
+          <a:ext cx="4106836" cy="3079409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -173,22 +168,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>64553</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87300</xdr:rowOff>
+      <xdr:rowOff>78316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4219576</xdr:colOff>
+      <xdr:colOff>4256626</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3284550</xdr:rowOff>
+      <xdr:rowOff>3226859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD33471-B891-096F-28ED-4E955B683EAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603CDB7B-4D1D-DC6D-0058-06FD04394E3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -196,15 +191,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="4908" t="6747" r="7438" b="3068"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="3954450"/>
-          <a:ext cx="4143376" cy="3197250"/>
+          <a:off x="1296453" y="3947583"/>
+          <a:ext cx="4191015" cy="3147485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -216,22 +212,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50271</xdr:colOff>
+      <xdr:colOff>88143</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>64099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3950229</xdr:colOff>
+      <xdr:colOff>4025900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3248025</xdr:rowOff>
+      <xdr:rowOff>3008844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68C91FB-9E7E-BA5A-DF36-1894C785CEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44F24BE-1C76-2A38-D8EC-2BA904D49F92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -239,15 +235,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="7250" t="6665" r="9000" b="3334"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6022446" y="676275"/>
-          <a:ext cx="3899958" cy="3143250"/>
+          <a:off x="5646510" y="635599"/>
+          <a:ext cx="3935640" cy="2944745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,22 +256,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:colOff>74715</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>150956</xdr:rowOff>
+      <xdr:rowOff>122450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3981085</xdr:colOff>
+      <xdr:colOff>3958167</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3257549</xdr:rowOff>
+      <xdr:rowOff>3035818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0372092F-39A1-3295-A13B-7EF0A0EC83B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4BBE37-C425-24F2-4671-4F119D61E8CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -282,15 +279,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="5631" t="6932" r="8602" b="2971"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6010274" y="4018106"/>
-          <a:ext cx="3942986" cy="3106593"/>
+          <a:off x="5633082" y="3991717"/>
+          <a:ext cx="3883452" cy="2912310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -302,22 +300,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>113342</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>138644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4124325</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10485</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3238500</xdr:rowOff>
+      <xdr:rowOff>3191934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21ABECD-3845-CC7E-149E-02189CC10FDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6ECA89-746B-0250-B2E2-5EA2CCC01DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -325,15 +323,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="5882" t="6952" r="8489" b="3743"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10086975" y="628650"/>
-          <a:ext cx="4067175" cy="3181350"/>
+          <a:off x="9731475" y="710144"/>
+          <a:ext cx="4059568" cy="3052232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -345,22 +344,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>71967</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>83895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4057650</xdr:colOff>
+      <xdr:colOff>4022726</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3219451</xdr:rowOff>
+      <xdr:rowOff>3053011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72416F31-1FC2-42D2-AF39-2DB11BB78D2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B92764A-8DA3-B346-A649-F4AD08919011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9690100" y="3953162"/>
+          <a:ext cx="3948642" cy="2970174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213615</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4212167</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3162868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823369F5-27D7-F9F3-143F-DAD1A58FE1F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -369,14 +412,58 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect l="5906" t="6867" r="8586" b="3297"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect r="6169" b="2419"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="3971925"/>
-          <a:ext cx="3952875" cy="3114676"/>
+          <a:off x="13993115" y="618068"/>
+          <a:ext cx="3998552" cy="3116300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4417619</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3231093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C17B31-18BF-0509-11A9-C65B17D4515C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13986800" y="3940178"/>
+          <a:ext cx="4210319" cy="3160182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6124515F-2D9E-41E8-90EA-A14E71E9D26A}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +785,7 @@
     <col min="3" max="3" width="64.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,10 +809,13 @@
     </row>
     <row r="3" spans="2:6" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
